--- a/기능정의서.xlsx
+++ b/기능정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysna\Documents\YS\PJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysna\Documents\YS\PJ\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503E93B-B96E-4E9D-A717-481DF778AC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADDBB76-7D9E-4BAD-999C-CAF8868AC5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="32145" windowHeight="17100" xr2:uid="{8F7AE265-00C9-4396-A019-51C6F6F21B4A}"/>
+    <workbookView xWindow="-480" yWindow="3900" windowWidth="32145" windowHeight="17100" xr2:uid="{8F7AE265-00C9-4396-A019-51C6F6F21B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>기능 정의</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,6 +243,42 @@
   </si>
   <si>
     <t>■UI/UX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSP (반복 던전)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■맵 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 사망시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 드랍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브&amp;로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -456,34 +492,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,259 +839,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FF5E6-9D12-41E7-B19C-BF085F115887}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21" style="4" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="22" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="8" t="s">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F38" s="4" t="s">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F39" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
     </row>

--- a/기능정의서.xlsx
+++ b/기능정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysna\Documents\YS\PJ\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADDBB76-7D9E-4BAD-999C-CAF8868AC5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81270B-26D2-4690-A076-2234AF2C7DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="3900" windowWidth="32145" windowHeight="17100" xr2:uid="{8F7AE265-00C9-4396-A019-51C6F6F21B4A}"/>
+    <workbookView xWindow="90" yWindow="60" windowWidth="32010" windowHeight="17100" xr2:uid="{8F7AE265-00C9-4396-A019-51C6F6F21B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,12 +76,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="A80" authorId="0" shapeId="0" xr:uid="{8C3F48FA-BDE2-454E-AF8F-8AAB1D8248EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>권오준</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Client</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>기능 정의</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -279,6 +314,30 @@
   </si>
   <si>
     <t>■</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■ 게임 메뉴 씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■ 게임 플레이 씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■ 게임 로딩 씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_UX_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>■디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -837,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FF5E6-9D12-41E7-B19C-BF085F115887}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -972,41 +1031,55 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F17" s="2" t="s">
-        <v>36</v>
+      <c r="J15" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1121,24 +1194,58 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/기능정의서.xlsx
+++ b/기능정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysna\Documents\YS\PJ\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ST\PJ\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81270B-26D2-4690-A076-2234AF2C7DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58FB6B7-2C49-4C3B-9A2D-BAEA0015AC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="60" windowWidth="32010" windowHeight="17100" xr2:uid="{8F7AE265-00C9-4396-A019-51C6F6F21B4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8F7AE265-00C9-4396-A019-51C6F6F21B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>기능 정의</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -338,6 +338,34 @@
   </si>
   <si>
     <t>저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -896,30 +924,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FF5E6-9D12-41E7-B19C-BF085F115887}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" style="2" customWidth="1"/>
     <col min="12" max="12" width="22" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -935,7 +963,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -963,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -975,7 +1003,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1001,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1017,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1051,7 +1079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1059,7 +1087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1073,17 +1101,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
       <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
       <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1106,7 +1134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
       <c r="I25" s="5" t="s">
         <v>16</v>
       </c>
@@ -1114,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.4">
       <c r="I26" s="5" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.4">
       <c r="I27" s="5" t="s">
         <v>28</v>
       </c>
@@ -1130,7 +1158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.4">
       <c r="I28" s="5" t="s">
         <v>35</v>
       </c>
@@ -1138,7 +1166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.4">
       <c r="H30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1146,12 +1174,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.4">
       <c r="J31" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.4">
       <c r="H33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1159,7 +1187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
@@ -1179,37 +1207,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.4">
       <c r="F39" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.4">
       <c r="F40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.4">
       <c r="F41" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
         <v>54</v>
       </c>
@@ -1220,17 +1248,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D85" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D92" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B107" s="1" t="s">
         <v>55</v>
       </c>
@@ -1238,14 +1266,57 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D112" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D119" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="F120" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="F121" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="F123" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="G124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="G125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
